--- a/data/trans_dic/P16A03-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A03-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A03-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A03-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,72%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>1,92; 4,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0,98; 3,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,82; 2,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>2,74; 5,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>5,59; 8,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>6,65; 9,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>3,9; 6,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>7,05; 10,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>4,17; 6,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>4,5; 6,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,91; 4,96</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>5,62; 7,96</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,88%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,92; 2,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,65; 1,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,72; 1,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,14; 2,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>3,65; 5,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>3,49; 5,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,65; 4,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>3,2; 4,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,41; 3,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,12; 3,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>1,78; 2,71</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>2,46; 3,39</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,3%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>2,01; 5,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,61; 3,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,42; 2,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,94; 3,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>2,21; 5,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>3,78; 8,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>3,11; 6,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,51; 6,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,44; 4,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>2,58; 5,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,99; 4,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,48; 4,27</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,7%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,74; 2,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,93; 1,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,89; 1,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,67; 2,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,52; 6,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,16; 6,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,53; 4,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,48; 5,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,37; 4,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,3; 4,22</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,34; 3,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>3,32; 4,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A03-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A03-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>6,71%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,74; 5,86</t>
+          <t>2,82; 6,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,05; 10,1</t>
+          <t>7,05; 10,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,62; 7,96</t>
+          <t>5,65; 7,97</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,64%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 2,24</t>
+          <t>0,96; 2,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,2; 4,91</t>
+          <t>2,57; 4,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 3,39</t>
+          <t>2,11; 3,19</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,34%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,23</t>
+          <t>0,95; 3,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 6,33</t>
+          <t>3,58; 6,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,27</t>
+          <t>2,52; 4,32</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,49%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 2,67</t>
+          <t>1,46; 2,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 5,78</t>
+          <t>4,01; 5,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 4,14</t>
+          <t>2,97; 3,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A03-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A03-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,25</t>
+          <t>1,98; 4,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,1</t>
+          <t>0,89; 2,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,63</t>
+          <t>0,9; 2,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,82; 6,07</t>
+          <t>3,0; 6,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,59; 8,23</t>
+          <t>5,34; 8,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,65; 9,88</t>
+          <t>6,61; 9,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,9; 6,97</t>
+          <t>3,96; 7,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,05; 10,02</t>
+          <t>6,76; 9,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,17; 6,04</t>
+          <t>4,26; 6,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,5; 6,36</t>
+          <t>4,56; 6,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,91; 4,96</t>
+          <t>2,92; 4,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 7,97</t>
+          <t>5,57; 7,77</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,05</t>
+          <t>0,92; 2,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,7</t>
+          <t>0,65; 1,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,7</t>
+          <t>0,73; 1,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,1</t>
+          <t>0,98; 2,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 5,65</t>
+          <t>3,61; 5,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,6</t>
+          <t>3,43; 5,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 4,3</t>
+          <t>2,61; 4,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 4,7</t>
+          <t>2,75; 4,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,66</t>
+          <t>2,4; 3,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,12; 3,22</t>
+          <t>2,17; 3,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 2,71</t>
+          <t>1,74; 2,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 3,19</t>
+          <t>2,07; 3,15</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 5,43</t>
+          <t>2,04; 5,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,69</t>
+          <t>0,63; 3,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,55</t>
+          <t>0,39; 2,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,3</t>
+          <t>0,96; 3,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 5,6</t>
+          <t>2,18; 5,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 8,42</t>
+          <t>3,67; 8,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 6,78</t>
+          <t>3,19; 6,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,53</t>
+          <t>3,56; 6,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,78</t>
+          <t>2,46; 4,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 5,19</t>
+          <t>2,42; 5,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,14</t>
+          <t>2,06; 4,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 4,32</t>
+          <t>2,49; 4,44</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 2,86</t>
+          <t>1,79; 2,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 1,8</t>
+          <t>0,94; 1,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,71</t>
+          <t>0,93; 1,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,5</t>
+          <t>1,48; 2,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,13</t>
+          <t>4,56; 6,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,16; 6,91</t>
+          <t>5,2; 6,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,53; 4,86</t>
+          <t>3,54; 4,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,01; 5,63</t>
+          <t>4,04; 5,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 4,37</t>
+          <t>3,31; 4,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 4,22</t>
+          <t>3,24; 4,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,34; 3,09</t>
+          <t>2,36; 3,16</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 3,97</t>
+          <t>3,02; 3,99</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido reconstituyentes en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>30297</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>16259</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11723</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>22337</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>89102</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>109176</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>53514</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>62511</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>119399</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>125435</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>65237</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>84848</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>20424; 43490</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8613; 28827</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6803; 19482</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15384; 31946</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>70220; 107611</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>88066; 129555</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>39363; 70081</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>50815; 74947</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>99860; 143821</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>105048; 148916</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>51052; 82999</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>70456; 98299</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>24499</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>21511</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>24241</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>34305</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>73287</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>77269</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>66922</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>85205</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>97786</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>98779</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>91163</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>119510</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>15569; 34540</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12684; 32058</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15236; 35452</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>22478; 47875</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>57330; 91925</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>60019; 97077</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>51872; 84555</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>61456; 107007</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>78562; 117231</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>80412; 120979</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>70894; 110940</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>93525; 142713</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>18481</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7786</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6360</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12072</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>17297</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>26584</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>25695</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>31595</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>35779</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>34371</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>32056</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>43667</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11223; 30576</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3009; 17602</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2154; 12860</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6176; 20354</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10394; 27065</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>16788; 38654</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17499; 37062</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23515; 43397</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>25334; 48547</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22734; 48726</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>22617; 45394</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>32576; 58085</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>73277</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>45556</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>42324</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>68715</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>179686</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>213030</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>146131</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>179311</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>252963</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>258585</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>188456</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>248026</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>58615; 94985</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>32017; 62967</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>31450; 57255</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>50955; 87609</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>154147; 204663</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>183913; 239912</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>124896; 173078</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>147543; 202463</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>220429; 281987</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>225138; 291876</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>163180; 218496</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>214440; 283157</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>